--- a/static/ETF Recommendations and features.xlsx
+++ b/static/ETF Recommendations and features.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanilgulati/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\ETF-Dashboard\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3F3818-A13A-AC4E-9BC2-BF30C62FDD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519C862C-EC47-4033-B2B6-60ECB6D1D38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="3700" windowWidth="28800" windowHeight="16280" activeTab="1" xr2:uid="{17DBBD96-9488-BE49-AD3F-4AEF4F55295B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{17DBBD96-9488-BE49-AD3F-4AEF4F55295B}"/>
   </bookViews>
   <sheets>
     <sheet name="ETF Recommendations" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Client Descriptions" sheetId="4" r:id="rId2"/>
     <sheet name="ETF Features" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -250,87 +250,89 @@
     <t>Clients</t>
   </si>
   <si>
+    <t>A sovereign wealth fund managing state-owned assets of South Korea.</t>
+  </si>
+  <si>
+    <t>A global diversification strategy across various ETFs each representing different regions, countries, or sectors, with allocations based on the fund's confidence as reflected in the ranks.</t>
+  </si>
+  <si>
+    <t>An investment company owned by the government of Singapore</t>
+  </si>
+  <si>
+    <t>A diversified portfolio that includes exposure to U.S. equities, international equities, inflation-protected securities, and sector-specific funds.</t>
+  </si>
+  <si>
+    <t>Canada's largest pension fund</t>
+  </si>
+  <si>
+    <t>A fairly diversified portfolio with exposure to a broad range of asset classes, including equities (both U.S. and emerging markets), sectors (technology, financials, energy, biotech, retail), small caps, bonds, and semiconductors.</t>
+  </si>
+  <si>
+    <t>The third largest public pension plan in the United States</t>
+  </si>
+  <si>
+    <t>Investment interests across a wide range of sectors and asset categories, including domestic and international equities, bonds, and commodities.</t>
+  </si>
+  <si>
+    <t>South Korea's national pension scheme, one of the largest in the world</t>
+  </si>
+  <si>
+    <t>Exposure to international growth companies (PBUS), large cap US equities (IVV), and Spanish equities (EWP).</t>
+  </si>
+  <si>
+    <t>Texas Teachers Retirement System</t>
+  </si>
+  <si>
+    <t>The largest public retirement system in Texas, serving teachers and other education employees</t>
+  </si>
+  <si>
+    <t>Current investments include large-cap US equities, emerging market equities, gold and gold miners, and internet stocks.</t>
+  </si>
+  <si>
+    <t>A public pension fund serving Michigan's public school employees</t>
+  </si>
+  <si>
+    <t>Diversified exposure consisting of equities (large, mid, sector-based), momentum and value factor strategies, as well as various fixed income securities.</t>
+  </si>
+  <si>
+    <t>One of the largest public retirement systems in the United States, serving Florida's public employees</t>
+  </si>
+  <si>
+    <t>Current investments include small-cap value stocks, internet stocks, gold, a business development company, and Russian equities.</t>
+  </si>
+  <si>
+    <t>A public pension fund serving Ohio's public educators</t>
+  </si>
+  <si>
+    <t>Current investments include a mix of country-specific ETFs, sector-specific ETFs, and closed-end funds.</t>
+  </si>
+  <si>
+    <t>California State Teachers' Retirement System (CalSTRS)</t>
+  </si>
+  <si>
+    <t>The largest educator-only pension fund in the world</t>
+  </si>
+  <si>
+    <t>A focus on carbon transition readiness and internet stocks.</t>
+  </si>
+  <si>
+    <t>Interpretations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Client Descriptions</t>
-  </si>
-  <si>
-    <t>Interpretation of current holdings</t>
-  </si>
-  <si>
-    <t>A sovereign wealth fund managing state-owned assets of South Korea.</t>
-  </si>
-  <si>
-    <t>A global diversification strategy across various ETFs each representing different regions, countries, or sectors, with allocations based on the fund's confidence as reflected in the ranks.</t>
-  </si>
-  <si>
-    <t>An investment company owned by the government of Singapore</t>
-  </si>
-  <si>
-    <t>A diversified portfolio that includes exposure to U.S. equities, international equities, inflation-protected securities, and sector-specific funds.</t>
-  </si>
-  <si>
-    <t>Canada's largest pension fund</t>
-  </si>
-  <si>
-    <t>A fairly diversified portfolio with exposure to a broad range of asset classes, including equities (both U.S. and emerging markets), sectors (technology, financials, energy, biotech, retail), small caps, bonds, and semiconductors.</t>
-  </si>
-  <si>
-    <t>The third largest public pension plan in the United States</t>
-  </si>
-  <si>
-    <t>Investment interests across a wide range of sectors and asset categories, including domestic and international equities, bonds, and commodities.</t>
-  </si>
-  <si>
-    <t>South Korea's national pension scheme, one of the largest in the world</t>
-  </si>
-  <si>
-    <t>Exposure to international growth companies (PBUS), large cap US equities (IVV), and Spanish equities (EWP).</t>
-  </si>
-  <si>
-    <t>Texas Teachers Retirement System</t>
-  </si>
-  <si>
-    <t>The largest public retirement system in Texas, serving teachers and other education employees</t>
-  </si>
-  <si>
-    <t>Current investments include large-cap US equities, emerging market equities, gold and gold miners, and internet stocks.</t>
-  </si>
-  <si>
-    <t>A public pension fund serving Michigan's public school employees</t>
-  </si>
-  <si>
-    <t>Diversified exposure consisting of equities (large, mid, sector-based), momentum and value factor strategies, as well as various fixed income securities.</t>
-  </si>
-  <si>
-    <t>One of the largest public retirement systems in the United States, serving Florida's public employees</t>
-  </si>
-  <si>
-    <t>Current investments include small-cap value stocks, internet stocks, gold, a business development company, and Russian equities.</t>
-  </si>
-  <si>
-    <t>A public pension fund serving Ohio's public educators</t>
-  </si>
-  <si>
-    <t>Current investments include a mix of country-specific ETFs, sector-specific ETFs, and closed-end funds.</t>
-  </si>
-  <si>
-    <t>California State Teachers' Retirement System (CalSTRS)</t>
-  </si>
-  <si>
-    <t>The largest educator-only pension fund in the world</t>
-  </si>
-  <si>
-    <t>A focus on carbon transition readiness and internet stocks.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -338,8 +340,15 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -696,21 +705,21 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,7 +751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -774,7 +783,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -806,7 +815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -838,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -871,6 +880,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -879,141 +889,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70059A1E-D526-F244-9679-2AFD992625B6}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" style="5" customWidth="1"/>
+    <col min="2000" max="2000" width="2.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="81" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="B11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>93</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1026,17 +1038,17 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1059,7 +1071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1082,7 +1094,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1105,7 +1117,7 @@
         <v>4.2099999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1128,7 +1140,7 @@
         <v>1.61E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1151,7 +1163,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1186,7 @@
         <v>4.5900000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1197,7 +1209,7 @@
         <v>3.8899999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1220,7 +1232,7 @@
         <v>5.9900000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1243,7 +1255,7 @@
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1266,7 +1278,7 @@
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1289,7 +1301,7 @@
         <v>3.9699999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1324,7 @@
         <v>1.37E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1335,7 +1347,7 @@
         <v>2.58E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1358,7 +1370,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1381,7 +1393,7 @@
         <v>4.4400000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1405,6 +1417,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>